--- a/secure/26e-Sara.xlsx
+++ b/secure/26e-Sara.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Sara-988499</t>
+    <t>26e-Sara-690892</t>
   </si>
   <si>
-    <t>26e-Sara-698506</t>
+    <t>26e-Sara-145195</t>
   </si>
   <si>
-    <t>26e-Sara-552164</t>
+    <t>26e-Sara-361028</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F617a57e"/>
+        <fgColor rgb="Fd540d4b"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:VU503"/>
+  <dimension ref="A1:QB503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -463,14 +463,11 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:284" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>-0.996</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="JX3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2074,11 +2071,14 @@
       </c>
       <c r="M270" s="4"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:405" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>0.076</v>
       </c>
       <c r="M271" s="4"/>
+      <c r="OO271" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
@@ -2398,14 +2398,11 @@
       </c>
       <c r="M324" s="4"/>
     </row>
-    <row r="325" spans="1:593" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>0.292</v>
       </c>
       <c r="M325" s="4"/>
-      <c r="VU325" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
@@ -2455,11 +2452,14 @@
       </c>
       <c r="M333" s="4"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:444" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>0.328</v>
       </c>
       <c r="M334" s="4"/>
+      <c r="QB334" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
@@ -3085,14 +3085,11 @@
       </c>
       <c r="M438" s="4"/>
     </row>
-    <row r="439" spans="1:461" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>0.748</v>
       </c>
       <c r="M439" s="4"/>
-      <c r="QS439" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
@@ -3178,11 +3175,14 @@
       </c>
       <c r="M453" s="4"/>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>0.808</v>
       </c>
       <c r="M454" s="4"/>
+      <c r="QA454" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
